--- a/corpus/CorpusSergio/Alineacion_Espa_Mixe.xlsx
+++ b/corpus/CorpusSergio/Alineacion_Espa_Mixe.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduuag-my.sharepoint.com/personal/sergioa_vargas_edu_uag_mx/Documents/Tesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UIE62182\Documents\TesisGit\SpanishAyuujkTranslator\corpus\CorpusSergio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{F25606E6-8CCF-4444-A5CC-3CF41237BF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FFD2810-64CE-4F8D-B627-BF7A6BAB5333}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD31D057-A011-4E74-8215-E95D6F07F175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{1CFAC6F1-8F8B-4E6F-AF5D-6C21073352F1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="2322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="2534">
   <si>
     <t>Ve.</t>
   </si>
@@ -7085,12 +7085,649 @@
   <si>
     <t>iuk</t>
   </si>
+  <si>
+    <t>cucaracha</t>
+  </si>
+  <si>
+    <t>mïju’uky</t>
+  </si>
+  <si>
+    <t>mariposa</t>
+  </si>
+  <si>
+    <t>totk</t>
+  </si>
+  <si>
+    <t>chapulín</t>
+  </si>
+  <si>
+    <t>mu'</t>
+  </si>
+  <si>
+    <t>escarabajo</t>
+  </si>
+  <si>
+    <t>xïwään</t>
+  </si>
+  <si>
+    <t>mosca</t>
+  </si>
+  <si>
+    <t>tsatsy</t>
+  </si>
+  <si>
+    <t>oruga</t>
+  </si>
+  <si>
+    <t>në’ëny</t>
+  </si>
+  <si>
+    <t>araña</t>
+  </si>
+  <si>
+    <t>pëëjxy</t>
+  </si>
+  <si>
+    <t>pulga</t>
+  </si>
+  <si>
+    <t>pejxk</t>
+  </si>
+  <si>
+    <t>gusano</t>
+  </si>
+  <si>
+    <t>tïnë’ëk</t>
+  </si>
+  <si>
+    <t>escorpión</t>
+  </si>
+  <si>
+    <t>käjpy</t>
+  </si>
+  <si>
+    <t>animal palo</t>
+  </si>
+  <si>
+    <t>yuuj</t>
+  </si>
+  <si>
+    <t>hormiga</t>
+  </si>
+  <si>
+    <t>kuuy</t>
+  </si>
+  <si>
+    <t>animal hoja</t>
+  </si>
+  <si>
+    <t>pujxkojpk</t>
+  </si>
+  <si>
+    <t>grillo</t>
+  </si>
+  <si>
+    <t>nitky</t>
+  </si>
+  <si>
+    <t>abeja</t>
+  </si>
+  <si>
+    <t>seerï jïyujk</t>
+  </si>
+  <si>
+    <t>cien pies</t>
+  </si>
+  <si>
+    <t>ee’px kë’</t>
+  </si>
+  <si>
+    <t>tu’ujk</t>
+  </si>
+  <si>
+    <t>Como tu mismo puedes crear tu escrito</t>
+  </si>
+  <si>
+    <t>Sutsoo kë’m xkojt yë mnëky</t>
+  </si>
+  <si>
+    <t>buenos días</t>
+  </si>
+  <si>
+    <t>määy</t>
+  </si>
+  <si>
+    <t>buenas tardes</t>
+  </si>
+  <si>
+    <t>Te'ntspyëë'</t>
+  </si>
+  <si>
+    <t>buenas noches</t>
+  </si>
+  <si>
+    <t>Mekutsuu'</t>
+  </si>
+  <si>
+    <t>abuelo</t>
+  </si>
+  <si>
+    <t>Mëj teety</t>
+  </si>
+  <si>
+    <t>tetyamëj</t>
+  </si>
+  <si>
+    <t>abuela</t>
+  </si>
+  <si>
+    <t>mëj tääk</t>
+  </si>
+  <si>
+    <t>täkamëj</t>
+  </si>
+  <si>
+    <t>hermano mayor</t>
+  </si>
+  <si>
+    <t>hermana mayor</t>
+  </si>
+  <si>
+    <t>hermano menor</t>
+  </si>
+  <si>
+    <t>uunk</t>
+  </si>
+  <si>
+    <t>¿Cómo te llamas?</t>
+  </si>
+  <si>
+    <t>¿Ti m'xëëw?</t>
+  </si>
+  <si>
+    <t>¿De dónde vienes?</t>
+  </si>
+  <si>
+    <t>¿Mä m'tsëëny?</t>
+  </si>
+  <si>
+    <t>¿Dónde queda?</t>
+  </si>
+  <si>
+    <t>¿Mä tyany?</t>
+  </si>
+  <si>
+    <t>¿A dónde vas?</t>
+  </si>
+  <si>
+    <t>¿Mä mnikxy?</t>
+  </si>
+  <si>
+    <t>Desayunemos</t>
+  </si>
+  <si>
+    <t>Wan najopa'am</t>
+  </si>
+  <si>
+    <t>¿Cuánto es?</t>
+  </si>
+  <si>
+    <t>Wune'en yë</t>
+  </si>
+  <si>
+    <t>¿Dónde está el baño?</t>
+  </si>
+  <si>
+    <t>Mä ja wutet'täjk</t>
+  </si>
+  <si>
+    <t>Hasta mañana</t>
+  </si>
+  <si>
+    <t>Ja japom</t>
+  </si>
+  <si>
+    <t>Descansemos</t>
+  </si>
+  <si>
+    <t>Wan t'po'oxna'am</t>
+  </si>
+  <si>
+    <t>Yo me llamo Ana</t>
+  </si>
+  <si>
+    <t>Wä ëjts nxëëw Ana</t>
+  </si>
+  <si>
+    <t>Pregunta y responde</t>
+  </si>
+  <si>
+    <t>Yïk tëw jats atsojëmpet</t>
+  </si>
+  <si>
+    <t>¿De dónde eres?</t>
+  </si>
+  <si>
+    <t>Mä mkukäjpaty</t>
+  </si>
+  <si>
+    <t>Soy de México</t>
+  </si>
+  <si>
+    <t>Mexico nkukäjpaty</t>
+  </si>
+  <si>
+    <t>¿Qué haces en tu tiempo libre?</t>
+  </si>
+  <si>
+    <t>Ti mtumpy ku ja awätsäjtïn xmëëtaty?</t>
+  </si>
+  <si>
+    <t>Y tu?</t>
+  </si>
+  <si>
+    <t>Jïmts mets?</t>
+  </si>
+  <si>
+    <t>Hablante de una lengua indígena</t>
+  </si>
+  <si>
+    <t>Ayuujk jää´y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los mixes son un conjunto de pueblos originarios que habitan principalmente en el noreste del estado de Oaxaca albergando 290 comunidades. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yë ayuujk jää´ytsïe pën jam yëkpätëp wäjkwemp anëkëxp jats në matsk makë´pxy ja makta´pxy myäjk ja pujx ja käjp. </t>
+  </si>
+  <si>
+    <t>A pesar de que los unen ciertas nociones en la cosmovisión, el territorio, las tradiciones o la organización comunitaria, entre cada uno de estos pueblos existen significativas diferencias lingüísticas y culturales.</t>
+  </si>
+  <si>
+    <t>Ëy jya napyäätsï ja ayuujk jää´yäjtën, ja wënmää´ny, ja et näxwii´ny, wënkaxë´kp ja tëkatsyäjtën säm ja ´ääw ayuujk jats ja tsënäa´yën tanää´yën.</t>
+  </si>
+  <si>
+    <t>Una de las ideas que alberga la cosmovisión mixe, es que el individuo está formado por dos entidades anímicas, una mortal y otra inmortal llamada tso'ok o tona.</t>
+  </si>
+  <si>
+    <t>Ja ayuujk jää´y ja tsyënää´yën tsïanää´yën yëk nëkäpxp yëk nëmatsïäkp kuu matsk ja jujkyäjtën yëk patëkë yëk patwä´kë, mää ja jää´y mëët ja tso´ok, mïtï oo´k mïtï ka´oo´k.</t>
+  </si>
+  <si>
+    <t>La tona tso'ok vincula el nacimiento de una persona con un animal, por lo que ambos compartirán destino durante toda su existencia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuu ja jää´y myïny jyä´tsï yää näxwiin mëët ja kyaxi´iky ja tsyo´ok jats jate´n yaaktë y´amëjëtë. </t>
+  </si>
+  <si>
+    <t>Algunos otros animales, como la serpiente, son considerados como mensajeros de entidades espirituales.</t>
+  </si>
+  <si>
+    <t>Jamts muum ja jëyujtë mitï yëk käpxtëp yëk matsïäktëp säm yë tsää´ny mitï amääytsï jats yëk wëntsë´jkëtëp.</t>
+  </si>
+  <si>
+    <t>Además de la agricultura, algunos mixes practican la cacería. Las presas constantemente escasean y por ello muchos la han abandonado, sólo los ancianos son quienes aún lo recuerdan.</t>
+  </si>
+  <si>
+    <t>Ey ja kämtuu´nën jya yëk tunkjëëjp´atsï, jam muum ja jää´y pën jëyujk papëëtsïp. Kuu ja jëyujk y´akëjxënyë jats ka´ap y´ukëktunk´ätnë, tsïm ja´yë ja majää´y tjää´myatstë jats ta´ äp matsïä´ktë.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El tiempo de los animales </t>
+  </si>
+  <si>
+    <t>Ja jëyujk ja y´et nyäxwii´ny</t>
+  </si>
+  <si>
+    <t>La cría de ganado es frecuente en las zonas de la parte baja, donde existe el régimen de propiedad privada, incluso los terrenos destinados con anterioridad al cultivo de maíz han mudado a la cría de ganado.</t>
+  </si>
+  <si>
+    <t>Ja tsëkë´exk yëk pätp jam patjë´k´apy, mää ja jää´y kunääjxtë, kajaa et näxwii´ny tnëtanëtë, mää ´ijtsï ja moojk yëk ni´ipy tsakää tanatsïäjk ja tëë wyëmpetnë.</t>
+  </si>
+  <si>
+    <t>De los significados que les fueron dotados a los animales, se dice que los toros son representación de la naturaleza devastadora, considerados animales “peligrosos”. Son obsequiados en las fiestas y como comida ritual en la mayordomía</t>
+  </si>
+  <si>
+    <t>Yëk käpxtëp may ja jëyujk, säm yë tsakää kuu yëkxon y´ayoo´ntuny pats ja mäjääy´tsïëjk ja tsë´këtë jats twëntsë´këtë. Yoxtëp muum ja jää´y yë tsakää´ jats nayte´n yëk tsu´tst kuu ja jotmay myëjnaxy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quienes tienen mulas, opcionalmente las emplean como ayuda en la carga de leña, maíz, frutas y café; o agua en época de sequías. Los animales que pueden habitar en los corrales de las casas son cerdos, gallinas, gallos y guajolotes. </t>
+  </si>
+  <si>
+    <t>Pën jyakyaptëp ja jatsyu´u jam yik tunkpätëp ja jëyujk kuu t´as patsëmtë ja jä´äxy, ja moojk, ja ujtstëëm, kawee, uk ja nëëj kuu tsïmats ti´itsy y´as kukëxë. Jamts ja jëyujktë mitï yëk jakyaptëp kemyjëjtsï säm ja kutsy, tsaptutääk, tsapnaääw jats ja na´ääw.</t>
+  </si>
+  <si>
+    <t>Un pueblo de tradición musical</t>
+  </si>
+  <si>
+    <t>Ja pujx käjp xuxpë woppë</t>
+  </si>
+  <si>
+    <t>La música tiene una dimensión profundamente simbólica y funcional que se entreteje en la cosmovisión y en la vida comunitaria de los pueblos mixes.</t>
+  </si>
+  <si>
+    <t>Yë xuujxën wojpën jap yë nyëkapxy nyëmatsïä´ky kuu mëët nyawitsyë nyapyïkyë ja tsënää´yën tanää´yën ja ayuujk jää´y äjtën.</t>
+  </si>
+  <si>
+    <t>Todas las regiones mixes cuentan con una o varias bandas musicales que acompañan la vida comunitaria teniendo presencia en las fiestas, en las actividades ceremoniales y cívicas, en los funerales, las calendas, en los eventos deportivos.</t>
+  </si>
+  <si>
+    <t>Maykyäjp tjakyaptë ja xyuxpëtë wyopëtë pën jyamyëët´ätëp ja tsënää´yën tanää´yën mää ja xëtuu´nën, mää ja jotmay nyaxy, kuu ja oo´jkën tëkëë´yën yëk päätsï jats mää jatsï ja xuxpë woppë yëk ixy yëk päätsï.</t>
+  </si>
+  <si>
+    <t>La forma de aprendizaje y el trabajo de bandas musicales y músicos formados dentro de la tradición oral mixe guardan una estrecha relación con la ritualidad, la organización comunal y la toma de decisiones sociopolíticas.</t>
+  </si>
+  <si>
+    <t>Kuu ja xuxyujën yëk nëtunk´atsï mää jatsï nyaxy ja ´ëxpëjkën napyääjtëp mëët ja jää´wën mëpëjkën, ja amukë tuu´nën jats nayte´n ja tanëpëktääjkën kuu ja tunk ja pëkk yëk päätsï.</t>
+  </si>
+  <si>
+    <t>Vida en los ecosistemas</t>
+  </si>
+  <si>
+    <t>Tsënää´yën tanää´yën mëët ja et näxwii´ny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Reserva Estatal de la Sabana en San Juan Cotzocón está ubicada en la Sierra Norte, donde habitan comunidades Mixes, Chinantecos y Zapotecos. Ahí se encuentran pinos, cedros, ceibas y especies de vegetación propias de la selva. En la “Sabana” nace uno de los ríos más grandes del país: el Papaloapan. </t>
+  </si>
+  <si>
+    <t>Ja et näxwiiny mitï yëk tejp La Sabana mitï yëk pätp jam kootsëko´m kopk akupky, mää yëk päätë ja ayuujk jää´ytsï, ja chinanteco jää´ytsï jats japyëë´kxy jää´ytsï. Jämts yontë ja ´ujts ja kipy säm ja tseen, päpk jats poom. Nayte´n jam “Sabana” yëk pääts ja mëj nëëyë´pyë: Papaloapan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por otro lado, en la zona tropical se encuentran especies como el tapir, temazate, jaguar, el mono, especies de pericos y tucanes, ranas endémicas. </t>
+  </si>
+  <si>
+    <t>Jats jo´kx etjëëjtsï yëk päätsï ja jëyujtë säm ja pakutsy, ujtsjatsyu´uk, kuxyëpijy, tsääy,ujts joontë jats pokleentë.</t>
+  </si>
+  <si>
+    <t>En la zona templada se puede encontrar el puma, el venado de cola blanca, la nutria de río y aves endémicas como la urraca enana.</t>
+  </si>
+  <si>
+    <t>Jats nek etjëëjtsï yëk päätsï ja jëyujtë säm ja kääj, pawäj ´ëxpoop, ja nënokts jëyujk jats ja joontë mitï kuu et kuu näxwii´ny.</t>
+  </si>
+  <si>
+    <t>Fauna en la región mixe</t>
+  </si>
+  <si>
+    <t>Ja jëyujk ja tsyënaatsïäjk ayuujk y´et jëjtsï</t>
+  </si>
+  <si>
+    <t>Oaxaca es el estado con mayor biodiversidad en la república Méxicana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yää wäjkwiiny kajaa t´ixy tjakepy ja ujts ja kipy ja jëyuujk ja et näxwii´ny mitï yëk pätp yää nëwiiny. </t>
+  </si>
+  <si>
+    <t>Cuenta con aproximadamente 12500 especies de flora y de fauna.</t>
+  </si>
+  <si>
+    <t>Yëk käpxp kuu makmatsmil ja makoxk makë´pxy jëjp ja ujts ja kipy ja jëyujktë yik päätsï</t>
+  </si>
+  <si>
+    <t>Dos especies que subsisten a pesar de todo son el armadillo y el temazate.</t>
+  </si>
+  <si>
+    <t>Namatsk jëjp ja jëyujk jyaak yëk päätsï namay yë nëts jats ja päx.</t>
+  </si>
+  <si>
+    <t>Organización social</t>
+  </si>
+  <si>
+    <t>Ja kutunk’äjtën</t>
+  </si>
+  <si>
+    <t>Algunos pobladores celebran fiestas para deidades como la Diosa del agua o el Dios del maíz, con la finalidad de que no les falten alimentos, sus cosechas sean prósperas y ellos estén protegidos.</t>
+  </si>
+  <si>
+    <t>Ja ayuujk jää’ytye jyää’myatstep ja xyëëw ja jyumëjt jats nayëte’n xyëtuntëp ja pëktä’ky exëm ja tsakääj, ja nëëj, ja moojk, ja tunk ja pëk’k kyajaa’ët, myëjet, myëwënet, jats ja ka ëypë jyëka’kt jyëpojt.</t>
+  </si>
+  <si>
+    <t>Aunado al festejo, están los eventos cristianos.</t>
+  </si>
+  <si>
+    <t>Nayëte’n ja säntë yik xëtuntë.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La convivencia que se da en esos días refuerza la relación entre comunidades y destaca el ascenso de pobladores gracias a las mayordomías, además de incentivar el comercio con las comidas variadas que casi siempre van acompañadas del mezcal producto de los agricultores; las artesanías y los tejidos. </t>
+  </si>
+  <si>
+    <t>Ku ja xëëw ja xoontäjken tyunyëyë, namyujkëtëp ja jääy namay jats nya pyutë’këyëtë nutëki’yë. Yik konäxp ja kaaky ja tokx mëët ja xä’jk nëë mëët ja akäts nëëj. Nayëtën ja jääy nya xyëxyëtë mëët ja wyet ja nyääm mitë kë’m kyojtëp tyäktëp.</t>
+  </si>
+  <si>
+    <t>En la organización social, se destacan las autoridades tradicionales, que todavía en ciertas comunidades sigue teniendo fuerte presencia, sobre todo en la zona alta y media de la región.</t>
+  </si>
+  <si>
+    <t>Kë ja’ ja ayuujk käjptë ja kyutunk tjakyäptë, ja’ jëten ja käjp wyin tanaatyëp jats mëk ja kutujkën tpëktä’ktë, jam jënaxy nyikaxi’ky mä ja käjp mitë kppk wënkon tsënaatyëp jats mä waanë xyuxy, ja’këxp ku ja akäts kutunk’äjten ka jam myätsyëy.</t>
+  </si>
+  <si>
+    <t>Un aspecto latente en el ámbito político es la participación de la mujer que en el cabildeo ha tenido cada vez mayor presencia.</t>
+  </si>
+  <si>
+    <t>Ëxämpë xëëw, yik pëktäknëtëp ja të’xyëjk mëj kutunk.</t>
+  </si>
+  <si>
+    <t>La comida mixe</t>
+  </si>
+  <si>
+    <t>Ja kaaky ja toxk</t>
+  </si>
+  <si>
+    <t>En la gastronomía del pueblo ayuujk se entretejen procesos vitales como la siembra y la cosecha de alimentos esenciales como el maíz, el frijol, el chile y la calabaza.</t>
+  </si>
+  <si>
+    <t>Ja ayuujk jää’ytyë ni tyum jate’n tmëëtëtë ja tsënääyën tyanä’yën, exëm ja xetuu’nën, ja tunk ja pëk’k. Tum jate’n tnë’ptë ja moojk, ja xëjk, ja niiy, ja tsë’</t>
+  </si>
+  <si>
+    <t>En las zonas altas además se cultivan papa, aguacate y ajo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jam mä xyuxy yik nep’p ja miny ja kutyp jats ja axux. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En las zonas templadas, café, plátano, camote y caña de azúcar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mä niy jokx yik nep’p ja kawë, ja tsä’m, ja pä’k miny, jats ja wäxk. </t>
+  </si>
+  <si>
+    <t>Y en las zonas bajas, la tierra brinda café y frutos cítricos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mä ja jokx et, yik nep’p ja kawë jats ja xun utstëëmtë. </t>
+  </si>
+  <si>
+    <t>El maíz está presente en la vida cotidiana y ceremonial de los pueblos mixes en forma de tortillas, tamales, atole, o champurrado.</t>
+  </si>
+  <si>
+    <t>Yi moojk, tunkpätp yë’ japom japom ku ja kää’yën ja uujkën nyaxy exëm yë kaaky, yë mi’ky, yë na’any. Jats nayë tunk pätp ku ja jotmay yik mëëtë jats jam kopk këxp ja wëntsë’jkën y’äty yik pëktäky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dentro de los guisos tradicionales se encuentran el caldo mixe, el mole de masa con quelite y chícharos con plátano verde, el mole de frijol, el pescado seco con papa y hoja de chilacayote y el machucado; platillo que se hace durante el mes de agosto como ofrenda para llamar la abundancia. </t>
+  </si>
+  <si>
+    <t>Mitë jënaxy yik tokxp ayuujk jääy et jotp ja’ jatë exëm yi tutk tokx, yë pënuuky, yë tsi’py, yë pek xëjk, yë xëjk wën jääxy, yë akx të’ts mëët jë miny, jats yë mä’tsy mitë yë jëëkxp Akostë po’, ku ja jiikx pyëtsëmokwänëtë, jats yik amëtëy ju yik jujktätpë ku ja yuuj ja pä’m jyë ka’kt.</t>
+  </si>
+  <si>
+    <t>La propia lengua</t>
+  </si>
+  <si>
+    <t>Ja kë’m ayuujk</t>
+  </si>
+  <si>
+    <t>El idioma mixe pertenece a la familia lingüística mixe-zoque.</t>
+  </si>
+  <si>
+    <t>Yë ayuujk jam yë tsyëëny mitë ja akäts tyejtëp mixe-zoque.</t>
+  </si>
+  <si>
+    <t>Actualmente se considera que existen seis variantes dialectales cada una con diferencias significativas en el idioma y en la cultura.</t>
+  </si>
+  <si>
+    <t>Tutujk jëjp ja ayuujk exäm yik i’xyë, jats nëkaxë’kp ja tyëkatys’äjtne tu’k ja tu’k ja ayuujk.</t>
+  </si>
+  <si>
+    <t>Sobre la forma en que los pueblos mixes se nombran a ellos mismos existe una diversidad en la conformación de los vocablos y palabras de acuerdo a cada región, pero podríamos decir que su autodenominación Ayuujk jää'y, Ayuuk jä'äy, Ayöök jayu o Ayuuk jyay, significa “gente que habla el ayuuk”.</t>
+  </si>
+  <si>
+    <t>Tu’k jaty ja ayuujk käjptë kë ja’ nya xyëtijyëtë, jats tëkatsp ja ääw ja ayuujk. May jëëjp nya xyëtijyë ja käjptë exëm Ayuujk jää'y, Ayuuk jä'äy, Ayöök jayu uk Ayuuk jyay. Ayuujk jää’y tyijp ja jääytë mitë ja ääw ja ayuujk kyäpxtëp.</t>
+  </si>
+  <si>
+    <t>A su vez, los vocablos de su nombre se componen de las raíces “a” ("idioma", "palabra"), “yuuk” ("montaña", "bosque") y jää'y ("persona", "gente"), es decir, “gente de la lengua de las montañas” o “gente de la lengua del bosque”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ku yë nyik na wyä’kxëya’n yi ayuujk, yë “ä” ja yë tyijp ääw uk ääw wimpy, exëm yi käpxën matyääjken, jats yë “yuuk” ja yë tyijpy ja yukp ja kopk, jats yë “jää’y” ja jää’ytyë, Ku tyë nyik namyu’jkëya’n ja ye tyijp ja jää’ytyë mitë ja yukp ja kopk ayuujk kyäptxtëp.
+</t>
+  </si>
+  <si>
+    <t>La casa de fuego y la cosecha</t>
+  </si>
+  <si>
+    <t>Ja jëën tëjk jëts ja pëktä’ky</t>
+  </si>
+  <si>
+    <t>En la casa- habitación de la región mixe, se pueden encontrar espacios destinados al patio o al huerto para la siembra de árboles frutales, plantas de ornato y medicinales.</t>
+  </si>
+  <si>
+    <t>Jam ayuujk et jotp ja jëën ja tëjjktë, myëëttë ja täjy mä ja jääy tne’ptë ja pijy, ja ujts tsä’m, ja ujts mitë yëk jëëkxp jats mitë na tya tsëyëtëp.</t>
+  </si>
+  <si>
+    <t>Otro sitio es para el corral de los animales domésticos, y aunque no todas las casas cuentan con esos espacios, es seguro que sí con uno para la cocina; ahí están los alimentos y el fogón; el fuego que emana es un mensaje, el crepitar de las brasas es parte de su lenguaje.</t>
+  </si>
+  <si>
+    <t>Nayëte’n jam tëk awemp yik pääty ja jëyujk tsënatyajk, exëm ja tutk, ja tsapäx uk oy omëti’ jëyujk mitë yik jakyap’p. Jam naytën yik päät ja tëjk mä et ja kaaky ja toxk y’ëyë, myëët ja jentëpyajt ma ja tokx ki’y.</t>
+  </si>
+  <si>
+    <t>Las legumbres y frutas, pueden ser obtenidas, en su mayoría, en cosechas realizadas por mujeres y hombres.</t>
+  </si>
+  <si>
+    <t>Ja ujts ja jikkx, këm jam yik ni’py käm wemp käm jotp mä ja yää’ytyëjtktë mëët ja të’xyjëjktë tsyuntë pyëktë.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El clima indica el fruto que será sembrado para luego ser recolectado con el anuncio del sol, la lluvia o el frío, pues cultivos como el chile, papa, camote, caña, café, cítricos y el aguacate, requieren tiempos exactos de cada componente de los días según la temporada climática. </t>
+  </si>
+  <si>
+    <t>Käpxy jetën ja po’ yik payë’y jats ja neejpën nyaxy, ku ja tuuj myënë jawyëën ja ujts yik në’ptë jats ja ka tyë’tstë. Yik nëp’p ja moojk, ja niiy, ja xëjk, ja kutyp, ja wäxk, ja xun ujtstë pënë win jä’wëtëp ja et ja näxwi’nyit.</t>
+  </si>
+  <si>
+    <t>La región está dividida en temperaturas: fría, templada y caliente.</t>
+  </si>
+  <si>
+    <t>Jam ayuujk et jotp, yik päpt ja joxk et, ja xuxy et jats ja xaam et.</t>
+  </si>
+  <si>
+    <t>Cuentan con un calendario agrícola, consultado por los más ancianos para conocer cuáles serán las condiciones climatológicas durante los próximos 12 meses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ja majääytyëjktë nyajää’wëtëp juuneë ja nepk nyaxy, jumëjt wën jumëjt, ja jëtën nyikapxtën juunë ja moojk ja xëjk yik ni’py. </t>
+  </si>
+  <si>
+    <t>Fiesta del pueblo</t>
+  </si>
+  <si>
+    <t>Käjp xëëw</t>
+  </si>
+  <si>
+    <t>N’ayuujk ëjts njaapy</t>
+  </si>
+  <si>
+    <t>Escribo mi lengua</t>
+  </si>
+  <si>
+    <t>ver</t>
+  </si>
+  <si>
+    <t>ejx</t>
+  </si>
+  <si>
+    <t>observar</t>
+  </si>
+  <si>
+    <t>cuidar</t>
+  </si>
+  <si>
+    <t>Oreja</t>
+  </si>
+  <si>
+    <t>Täätsk</t>
+  </si>
+  <si>
+    <t>Montaña</t>
+  </si>
+  <si>
+    <t>Kopk</t>
+  </si>
+  <si>
+    <t>Maíz</t>
+  </si>
+  <si>
+    <t>Mojk</t>
+  </si>
+  <si>
+    <t>Diez</t>
+  </si>
+  <si>
+    <t>Määjk</t>
+  </si>
+  <si>
+    <t>Puente</t>
+  </si>
+  <si>
+    <t>Kuuty</t>
+  </si>
+  <si>
+    <t>Ojo</t>
+  </si>
+  <si>
+    <t>Ween</t>
+  </si>
+  <si>
+    <t>Cueva</t>
+  </si>
+  <si>
+    <t>Änk</t>
+  </si>
+  <si>
+    <t>Fuego</t>
+  </si>
+  <si>
+    <t>Nopal</t>
+  </si>
+  <si>
+    <t>Täät</t>
+  </si>
+  <si>
+    <t>Aguja</t>
+  </si>
+  <si>
+    <t>Xu'uny</t>
+  </si>
+  <si>
+    <t>Tamal</t>
+  </si>
+  <si>
+    <t>Mi'iky</t>
+  </si>
+  <si>
+    <t>Hongo</t>
+  </si>
+  <si>
+    <t>Mux</t>
+  </si>
+  <si>
+    <t>Pulque</t>
+  </si>
+  <si>
+    <t>Keetsy</t>
+  </si>
+  <si>
+    <t>Metate</t>
+  </si>
+  <si>
+    <t>Pään</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7121,13 +7758,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -7243,7 +7873,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -7309,6 +7939,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7624,10 +8257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D11E47C-2BEC-499D-B581-4C908E942930}">
-  <dimension ref="A1:B1292"/>
+  <dimension ref="A1:B1404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1257" workbookViewId="0">
-      <selection activeCell="A1295" sqref="A1295"/>
+    <sheetView tabSelected="1" topLeftCell="A1308" workbookViewId="0">
+      <selection activeCell="B1284" sqref="B1284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17973,6 +18606,902 @@
         <v>2321</v>
       </c>
     </row>
+    <row r="1293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1293" s="26" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1294" s="26" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1295" s="26" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1296" s="26" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1297" s="26" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1298" s="26" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1299" s="26" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1300" s="26" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1301" s="26" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1302" s="26" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1303" s="26" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1304" s="26" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1305" s="26" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1306" s="26" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1307" s="26" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1308" s="26" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1309" s="26" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1310" s="26" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1311" s="26" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1312" s="26" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1313" s="26" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1314" s="26" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1315" s="26" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1316" s="26" t="s">
+        <v>2366</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1317" s="26" t="s">
+        <v>2366</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1318" s="26" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1319" s="26" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1320" s="26" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1321" s="26" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1322" s="26" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1323" s="26" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1324" s="26" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1325" s="26" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1326" s="26" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1327" s="26" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1328" s="26" t="s">
+        <v>2383</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1329" s="26" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1330" s="26" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1331" s="26" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1332" s="26" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1333" s="26" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1334" s="26" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1335" s="26" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1336" s="26" t="s">
+        <v>2399</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1337" s="26" t="s">
+        <v>2401</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1338" s="26" t="s">
+        <v>2403</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1339" s="26" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B1339" s="26" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1340" s="26" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B1340" s="26" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1341" s="26" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B1341" s="26" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1342" s="26" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B1342" s="26" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1343" s="26" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B1343" s="26" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1344" s="26" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B1344" s="26" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1345" s="26" t="s">
+        <v>2417</v>
+      </c>
+      <c r="B1345" s="26" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1346" s="26" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B1346" s="26" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1347" s="26" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B1347" s="26" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1348" s="26" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B1348" s="26" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1349" s="26" t="s">
+        <v>2425</v>
+      </c>
+      <c r="B1349" s="26" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1350" s="26" t="s">
+        <v>2427</v>
+      </c>
+      <c r="B1350" s="26" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1351" s="26" t="s">
+        <v>2429</v>
+      </c>
+      <c r="B1351" s="26" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1352" s="26" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B1352" s="26" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1353" s="26" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B1353" s="26" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1354" s="26" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B1354" s="26" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1355" s="26" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B1355" s="26" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1356" s="26" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B1356" s="26" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1357" s="26" t="s">
+        <v>2441</v>
+      </c>
+      <c r="B1357" s="26" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1358" s="26" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B1358" s="26" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1359" s="26" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B1359" s="26" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1360" s="26" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1361" s="26" t="s">
+        <v>2449</v>
+      </c>
+      <c r="B1361" s="26" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1362" s="26" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B1362" s="26" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1363" s="26" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B1363" s="26" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1364" s="26" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B1364" s="26" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1365" s="26" t="s">
+        <v>2457</v>
+      </c>
+      <c r="B1365" s="26" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1366" s="26" t="s">
+        <v>2459</v>
+      </c>
+      <c r="B1366" s="26" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1367" s="26" t="s">
+        <v>2461</v>
+      </c>
+      <c r="B1367" s="26" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1368" s="26" t="s">
+        <v>2463</v>
+      </c>
+      <c r="B1368" s="26" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1369" s="26" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B1369" s="26" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1370" s="26" t="s">
+        <v>2467</v>
+      </c>
+      <c r="B1370" s="26" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1371" s="26" t="s">
+        <v>2469</v>
+      </c>
+      <c r="B1371" s="26" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1372" s="26" t="s">
+        <v>2471</v>
+      </c>
+      <c r="B1372" s="26" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1373" s="26" t="s">
+        <v>2473</v>
+      </c>
+      <c r="B1373" s="26" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1374" s="26" t="s">
+        <v>2475</v>
+      </c>
+      <c r="B1374" s="26" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1375" s="26" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B1375" s="26" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1376" s="26" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B1376" s="26" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1377" s="26" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B1377" s="26" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1378" s="26" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B1378" s="26" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1379" s="26" t="s">
+        <v>2485</v>
+      </c>
+      <c r="B1379" s="26" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1380" s="26" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B1380" s="26" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1381" s="26" t="s">
+        <v>2489</v>
+      </c>
+      <c r="B1381" s="26" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1382" s="26" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B1382" s="26" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1383" s="26" t="s">
+        <v>2493</v>
+      </c>
+      <c r="B1383" s="26" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1384" s="26" t="s">
+        <v>2495</v>
+      </c>
+      <c r="B1384" s="26" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1385" s="26" t="s">
+        <v>2497</v>
+      </c>
+      <c r="B1385" s="26" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1386" s="26" t="s">
+        <v>2499</v>
+      </c>
+      <c r="B1386" s="26" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1387" s="26" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B1387" s="26" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1388" s="26" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B1388" s="26" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1389" s="26" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B1389" s="26" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1390" s="26" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B1390" s="26" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1391" s="26" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B1391" s="26" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1392" s="26" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B1392" s="26" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1393" s="26" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B1393" s="26" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1394" s="26" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B1394" s="26" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1395" s="26" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B1395" s="26" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1396" s="26" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B1396" s="26" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1397" s="26" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B1397" s="26" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1398" s="26" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B1398" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1399" s="26" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B1399" s="26" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1400" s="26" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B1400" s="26" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1401" s="26" t="s">
+        <v>2526</v>
+      </c>
+      <c r="B1401" s="26" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1402" s="26" t="s">
+        <v>2528</v>
+      </c>
+      <c r="B1402" s="26" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1403" s="26" t="s">
+        <v>2530</v>
+      </c>
+      <c r="B1403" s="26" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1404" s="26" t="s">
+        <v>2532</v>
+      </c>
+      <c r="B1404" s="26" t="s">
+        <v>2533</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
